--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_P5_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1907.26104980003</v>
+        <v>1824.899659681731</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.44104980002316</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.24737545822573</v>
+        <v>15.23250213508452</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.24737545822573</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1400.170000000006</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.65</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -901,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -923,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -973,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -981,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553445</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -997,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.16166055474291</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.18700298823897</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1089,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1103,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1117,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1131,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1145,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1159,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1173,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1187,15 +1143,169 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000062</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000067</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>159.1200000000014</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>158.6950000000015</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>154.3250000000014</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>163.3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>160.9100000000014</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>174.0199999999998</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.6699999999998</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>188.4949999999998</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>185.7699999999998</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>180.9299999999998</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>174.0199999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.6699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>188.4949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>185.7699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>180.9299999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>99.54499999999936</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>92.51499999999935</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0699999999993</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>90.09499999999935</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>102.7799999999993</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42">
@@ -1683,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>159.1200000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1694,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>158.6950000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>154.3250000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>163.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1727,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>160.9100000000014</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>74.01999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1785,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.66999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1796,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>88.49499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1807,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>85.76999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1818,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>80.92999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1829,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -1851,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06999999999934658</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -1862,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
@@ -1873,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.779999999999347</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>59.12000000000143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1895,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>58.69500000000147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1906,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>54.32500000000144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1917,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>63.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1928,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>60.91000000000145</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1986,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1997,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2008,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2019,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2030,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2041,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2052,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2063,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2074,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2085,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2096,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2107,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2118,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2129,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2151,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2162,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2173,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2184,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2195,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2206,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2217,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2228,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2239,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2280,7 +2390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2291,7 +2401,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2302,7 +2412,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2313,7 +2423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2324,7 +2434,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2335,10 +2445,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2346,10 +2456,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2357,10 +2467,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2368,10 +2478,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2379,10 +2489,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2393,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2404,9 +2514,97 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
